--- a/Excel/Digital Market Analysis/Sales_Data_Liankai_Ren.xlsx
+++ b/Excel/Digital Market Analysis/Sales_Data_Liankai_Ren.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liankairen/Desktop/简历/interview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liankairen/Desktop/interview/BoMo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF24997-8976-F14D-ABC5-F74487ACD818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925673A9-B976-A34B-A0F9-2F2F545886C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="740" windowWidth="20160" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="760" windowWidth="20160" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId2"/>
+    <pivotCache cacheId="29" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4448,7 +4448,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE7E5431-A3FF-9F4F-B596-0C6A0925A864}" name="PivotTable6" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE7E5431-A3FF-9F4F-B596-0C6A0925A864}" name="PivotTable6" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L2:P8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -5371,7 +5371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="161" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -12487,7 +12487,7 @@
         <v>1102</v>
       </c>
       <c r="J194" s="5">
-        <f t="shared" ref="J194:J225" si="23">IF(ISBLANK(I194), "", IF(I194&gt;=2000, I194*0.15, IF(I194&gt;=1000, I194*0.1, 0)))</f>
+        <f t="shared" ref="J194:J201" si="23">IF(ISBLANK(I194), "", IF(I194&gt;=2000, I194*0.15, IF(I194&gt;=1000, I194*0.1, 0)))</f>
         <v>110.2</v>
       </c>
     </row>
